--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>FS-273</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 180 гр.)</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -957,6 +960,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,33 +1000,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1305,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1326,29 +1341,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="37"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1375,7 +1390,7 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="97" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="40" t="s">
@@ -1413,7 +1428,7 @@
       <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="99" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="52">
@@ -1441,7 +1456,7 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="9">
@@ -1469,7 +1484,7 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="9">
@@ -1497,7 +1512,7 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="110" t="s">
+      <c r="C8" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="9">
@@ -1525,7 +1540,7 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="9">
@@ -1553,7 +1568,7 @@
       <c r="B10" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9">
@@ -1581,7 +1596,7 @@
       <c r="B11" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9">
@@ -1610,7 +1625,7 @@
       <c r="B12" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="13">
@@ -1639,7 +1654,7 @@
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="C13" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9">
@@ -1669,7 +1684,7 @@
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="9">
@@ -1697,7 +1712,7 @@
       <c r="B15" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="100" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="54">
@@ -1773,7 +1788,9 @@
       <c r="I18" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="74"/>
+      <c r="J18" s="49" t="s">
+        <v>44</v>
+      </c>
       <c r="K18" s="74"/>
       <c r="L18" s="74"/>
     </row>
@@ -1807,34 +1824,42 @@
         <f>1-G19</f>
         <v>0.96317538461538466</v>
       </c>
-      <c r="J19" s="75"/>
+      <c r="J19" s="113"/>
       <c r="K19" s="67"/>
       <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
       <c r="A20" s="53"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
+      <c r="B20" s="90">
+        <v>43843</v>
+      </c>
+      <c r="C20" s="90">
+        <v>43845</v>
+      </c>
+      <c r="D20" s="90">
+        <v>43857</v>
+      </c>
       <c r="E20" s="91">
-        <v>0</v>
+        <v>625152</v>
       </c>
       <c r="F20" s="91">
-        <v>0</v>
+        <v>740794</v>
       </c>
       <c r="G20" s="44">
         <f>F20/A$19</f>
-        <v>0</v>
+        <v>4.0702967032967032E-2</v>
       </c>
       <c r="H20" s="88">
         <f>H19-F20</f>
-        <v>17529792</v>
+        <v>16788998</v>
       </c>
       <c r="I20" s="89">
         <f>I19-G20</f>
-        <v>0.96317538461538466</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>0.9224724175824176</v>
+      </c>
+      <c r="J20" s="113">
+        <v>186</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -1850,7 +1875,7 @@
       <c r="G21" s="44"/>
       <c r="H21" s="33"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="75"/>
+      <c r="J21" s="114"/>
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
     </row>
@@ -1864,7 +1889,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="75"/>
+      <c r="J22" s="115"/>
       <c r="K22" s="75"/>
       <c r="L22" s="1"/>
     </row>
@@ -1878,7 +1903,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="33"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="75"/>
+      <c r="J23" s="114"/>
       <c r="K23" s="76"/>
       <c r="L23" s="1"/>
     </row>
@@ -1892,7 +1917,7 @@
       <c r="G24" s="28"/>
       <c r="H24" s="33"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="75"/>
+      <c r="J24" s="114"/>
       <c r="K24" s="75"/>
       <c r="L24" s="1"/>
     </row>
@@ -1906,7 +1931,7 @@
       <c r="G25" s="28"/>
       <c r="H25" s="33"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="75"/>
+      <c r="J25" s="114"/>
       <c r="K25" s="75"/>
       <c r="L25" s="1"/>
     </row>
@@ -1920,7 +1945,7 @@
       <c r="G26" s="28"/>
       <c r="H26" s="33"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="75"/>
+      <c r="J26" s="114"/>
       <c r="K26" s="75"/>
       <c r="L26" s="1"/>
     </row>
@@ -1934,7 +1959,7 @@
       <c r="G27" s="29"/>
       <c r="H27" s="33"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="75"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="75"/>
       <c r="L27" s="1"/>
     </row>
@@ -1948,7 +1973,7 @@
       <c r="G28" s="28"/>
       <c r="H28" s="33"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="75"/>
+      <c r="J28" s="116"/>
       <c r="K28" s="75"/>
       <c r="L28" s="1"/>
     </row>
@@ -1962,7 +1987,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="34"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="117"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -1975,25 +2000,25 @@
       <c r="D30" s="23"/>
       <c r="E30" s="62">
         <f>SUM(E19:E29)</f>
-        <v>515328</v>
+        <v>1140480</v>
       </c>
       <c r="F30" s="61">
         <f>SUM(F19:F29)</f>
-        <v>670208</v>
+        <v>1411002</v>
       </c>
       <c r="G30" s="27">
         <f>SUM(G19:G29)</f>
-        <v>3.6824615384615386E-2</v>
+        <v>7.7527582417582425E-2</v>
       </c>
       <c r="H30" s="24">
         <f>A19-F30</f>
-        <v>17529792</v>
+        <v>16788998</v>
       </c>
       <c r="I30" s="36">
         <f>1-G30</f>
-        <v>0.96317538461538466</v>
-      </c>
-      <c r="J30" s="77"/>
+        <v>0.9224724175824176</v>
+      </c>
+      <c r="J30" s="118"/>
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
     </row>
@@ -2010,12 +2035,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2024,10 +2049,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="101"/>
+      <c r="B35" s="112"/>
       <c r="C35" s="12" t="s">
         <v>18</v>
       </c>
@@ -2042,29 +2067,29 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="99">
+      <c r="A36" s="110">
         <f>A19-F30</f>
-        <v>17529792</v>
-      </c>
-      <c r="B36" s="100"/>
+        <v>16788998</v>
+      </c>
+      <c r="B36" s="111"/>
       <c r="C36" s="81">
         <f>1-G30</f>
-        <v>0.96317538461538466</v>
+        <v>0.9224724175824176</v>
       </c>
       <c r="D36" s="25">
         <f>(C36/0.8)*100</f>
-        <v>120.39692307692307</v>
+        <v>115.30905219780219</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="108" t="s">
+      <c r="G36" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
@@ -2110,8 +2135,8 @@
       <c r="F40" s="63"/>
       <c r="G40" s="63"/>
       <c r="H40" s="63"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="64"/>
@@ -2205,9 +2230,9 @@
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="106"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="105"/>
       <c r="E50" s="69"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2224,8 +2249,8 @@
       <c r="F51" s="63"/>
       <c r="G51" s="63"/>
       <c r="H51" s="63"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="98"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="109"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="64"/>
@@ -2236,8 +2261,8 @@
       <c r="F52" s="66"/>
       <c r="G52" s="66"/>
       <c r="H52" s="65"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="64"/>
@@ -2248,8 +2273,8 @@
       <c r="F53" s="67"/>
       <c r="G53" s="67"/>
       <c r="H53" s="67"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2262,24 +2287,18 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="97"/>
-      <c r="C59" s="98"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="109"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="97"/>
-      <c r="C66" s="98"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="109"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2287,6 +2306,12 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
@@ -876,8 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -972,21 +970,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1000,16 +993,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1320,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1341,29 +1345,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="37"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1390,7 +1394,7 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="95" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="40" t="s">
@@ -1428,7 +1432,7 @@
       <c r="B5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="97" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="52">
@@ -1437,7 +1441,7 @@
       <c r="E5" s="52">
         <v>26</v>
       </c>
-      <c r="F5" s="82"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="52">
         <f>E5-F5</f>
         <v>26</v>
@@ -1446,7 +1450,7 @@
       <c r="I5" s="55"/>
       <c r="J5" s="51"/>
       <c r="K5" s="51"/>
-      <c r="L5" s="78"/>
+      <c r="L5" s="76"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="53">
@@ -1456,7 +1460,7 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="9">
@@ -1465,7 +1469,7 @@
       <c r="E6" s="9">
         <v>26</v>
       </c>
-      <c r="F6" s="83"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>26</v>
@@ -1474,7 +1478,7 @@
       <c r="I6" s="56"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="79"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="53">
@@ -1484,7 +1488,7 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="9">
@@ -1493,7 +1497,7 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="83"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1502,7 +1506,7 @@
       <c r="I7" s="56"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="79"/>
+      <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="53">
@@ -1512,7 +1516,7 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="9">
@@ -1521,7 +1525,7 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="83"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1530,7 +1534,7 @@
       <c r="I8" s="56"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="79"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="53">
@@ -1540,7 +1544,7 @@
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="9">
@@ -1549,7 +1553,7 @@
       <c r="E9" s="9">
         <v>100</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
         <v>100</v>
@@ -1558,17 +1562,17 @@
       <c r="I9" s="57"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="79"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="53">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="9">
@@ -1577,7 +1581,7 @@
       <c r="E10" s="9">
         <v>22</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1586,17 +1590,17 @@
       <c r="I10" s="56"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="79"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="53">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="9">
@@ -1605,7 +1609,7 @@
       <c r="E11" s="9">
         <v>25</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1614,7 +1618,7 @@
       <c r="I11" s="57"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="79"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
@@ -1622,10 +1626,10 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="13">
@@ -1634,7 +1638,7 @@
       <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="81"/>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1643,7 +1647,7 @@
       <c r="I12" s="57"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="79"/>
+      <c r="L12" s="77"/>
       <c r="M12" s="35"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
@@ -1654,7 +1658,7 @@
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="9">
@@ -1663,7 +1667,7 @@
       <c r="E13" s="9">
         <v>50</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -1674,7 +1678,7 @@
       <c r="I13" s="57"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="79"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="53">
@@ -1684,7 +1688,7 @@
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="96" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="9">
@@ -1693,7 +1697,7 @@
       <c r="E14" s="9">
         <v>220</v>
       </c>
-      <c r="F14" s="83"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>220</v>
@@ -1702,17 +1706,17 @@
       <c r="I14" s="57"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="79"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="93">
+      <c r="A15" s="91">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="98" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="54">
@@ -1721,20 +1725,20 @@
       <c r="E15" s="54">
         <v>40</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="54">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
       <c r="J15" s="54"/>
       <c r="K15" s="54"/>
-      <c r="L15" s="96"/>
+      <c r="L15" s="94"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="71"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1746,7 +1750,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="14"/>
@@ -1756,9 +1760,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
     </row>
     <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
       <c r="A18" s="45" t="s">
@@ -1791,73 +1795,73 @@
       <c r="J18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="80">
+      <c r="A19" s="78">
         <f>E5*700000</f>
         <v>18200000</v>
       </c>
       <c r="B19" s="43">
         <v>43644</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="84">
         <v>43646</v>
       </c>
       <c r="D19" s="43"/>
-      <c r="E19" s="87">
+      <c r="E19" s="85">
         <v>515328</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="85">
         <v>670208</v>
       </c>
       <c r="G19" s="44">
         <f>F19/A$19</f>
         <v>3.6824615384615386E-2</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="86">
         <f>A19-F19</f>
         <v>17529792</v>
       </c>
-      <c r="I19" s="89">
+      <c r="I19" s="87">
         <f>1-G19</f>
         <v>0.96317538461538466</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1">
       <c r="A20" s="53"/>
-      <c r="B20" s="90">
+      <c r="B20" s="88">
         <v>43843</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="88">
         <v>43845</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="88">
         <v>43857</v>
       </c>
-      <c r="E20" s="91">
+      <c r="E20" s="89">
         <v>625152</v>
       </c>
-      <c r="F20" s="91">
+      <c r="F20" s="89">
         <v>740794</v>
       </c>
       <c r="G20" s="44">
         <f>F20/A$19</f>
         <v>4.0702967032967032E-2</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="86">
         <f>H19-F20</f>
         <v>16788998</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="87">
         <f>I19-G20</f>
         <v>0.9224724175824176</v>
       </c>
-      <c r="J20" s="113">
+      <c r="J20" s="99">
         <v>186</v>
       </c>
       <c r="K20" s="1"/>
@@ -1875,9 +1879,9 @@
       <c r="G21" s="44"/>
       <c r="H21" s="33"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="16"/>
@@ -1889,8 +1893,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="75"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
@@ -1903,8 +1907,8 @@
       <c r="G23" s="28"/>
       <c r="H23" s="33"/>
       <c r="I23" s="30"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="76"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="74"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1917,8 +1921,8 @@
       <c r="G24" s="28"/>
       <c r="H24" s="33"/>
       <c r="I24" s="30"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="75"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="73"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1931,8 +1935,8 @@
       <c r="G25" s="28"/>
       <c r="H25" s="33"/>
       <c r="I25" s="30"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="75"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1945,8 +1949,8 @@
       <c r="G26" s="28"/>
       <c r="H26" s="33"/>
       <c r="I26" s="30"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="75"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
@@ -1959,8 +1963,8 @@
       <c r="G27" s="29"/>
       <c r="H27" s="33"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="75"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="73"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1973,8 +1977,8 @@
       <c r="G28" s="28"/>
       <c r="H28" s="33"/>
       <c r="I28" s="31"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="75"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="73"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.8" thickBot="1">
@@ -1987,7 +1991,7 @@
       <c r="G29" s="26"/>
       <c r="H29" s="34"/>
       <c r="I29" s="32"/>
-      <c r="J29" s="117"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
@@ -1998,11 +2002,11 @@
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="62">
+      <c r="E30" s="117">
         <f>SUM(E19:E29)</f>
         <v>1140480</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="118">
         <f>SUM(F19:F29)</f>
         <v>1411002</v>
       </c>
@@ -2018,9 +2022,9 @@
         <f>1-G30</f>
         <v>0.9224724175824176</v>
       </c>
-      <c r="J30" s="118"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>
@@ -2035,12 +2039,12 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2049,10 +2053,10 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="112"/>
+      <c r="B35" s="109"/>
       <c r="C35" s="12" t="s">
         <v>18</v>
       </c>
@@ -2067,12 +2071,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="110">
+      <c r="A36" s="107">
         <f>A19-F30</f>
         <v>16788998</v>
       </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="81">
+      <c r="B36" s="108"/>
+      <c r="C36" s="79">
         <f>1-G30</f>
         <v>0.9224724175824176</v>
       </c>
@@ -2082,14 +2086,14 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="107" t="s">
+      <c r="G36" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
@@ -2127,113 +2131,113 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="109"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="106"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="65"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="65"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="64"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="65"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="63"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="65"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="63"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="64"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="65"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="63"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="64"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="65"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="65"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="65"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:10" ht="15.6">
       <c r="A50" s="1"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="69"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2241,40 +2245,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="108"/>
-      <c r="J51" s="109"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="106"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="64"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="64"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="1"/>
@@ -2287,18 +2291,24 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="B59" s="108"/>
-      <c r="C59" s="109"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="106"/>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="106"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G36:L36"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2306,12 +2316,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51CBA29-E7E3-4266-B3BD-DF46CF07816F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>№Поз</t>
   </si>
@@ -144,9 +152,6 @@
   </si>
   <si>
     <t>Начальник УРФ                                            Е.А. Козинов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>Формокомплект банки 0,3 л тип III-4-66-1-300-1 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
@@ -164,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -172,7 +177,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -982,6 +987,29 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,29 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1111,6 +1116,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1146,6 +1168,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1321,53 +1360,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="37"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1375,7 +1414,7 @@
       <c r="L2" s="38"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1387,7 +1426,7 @@
       <c r="K3" s="38"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="50">
         <v>1</v>
       </c>
@@ -1433,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="52">
         <v>26</v>
@@ -1452,7 +1491,7 @@
       <c r="K5" s="51"/>
       <c r="L5" s="76"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>A5+1</f>
         <v>2</v>
@@ -1461,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9">
         <v>26</v>
@@ -1480,7 +1519,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="77"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
@@ -1489,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9">
         <v>32</v>
@@ -1508,7 +1547,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="77"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1517,7 +1556,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9">
         <v>32</v>
@@ -1536,7 +1575,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="77"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1545,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="9">
         <v>100</v>
@@ -1564,7 +1603,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="77"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1573,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9">
         <v>22</v>
@@ -1592,7 +1631,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="77"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1601,7 +1640,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9">
         <v>25</v>
@@ -1621,7 +1660,7 @@
       <c r="L11" s="77"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1630,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="13">
         <v>8</v>
@@ -1650,7 +1689,7 @@
       <c r="L12" s="77"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1659,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9">
         <v>80</v>
@@ -1680,7 +1719,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="77"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1689,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9">
         <v>220</v>
@@ -1708,7 +1747,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="77"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1717,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="54">
         <v>40</v>
@@ -1736,7 +1775,7 @@
       <c r="K15" s="54"/>
       <c r="L15" s="94"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="69"/>
       <c r="B16" s="68"/>
       <c r="C16" s="1"/>
@@ -1748,7 +1787,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="16.2" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="70" t="s">
         <v>10</v>
@@ -1764,7 +1803,7 @@
       <c r="K17" s="71"/>
       <c r="L17" s="71"/>
     </row>
-    <row r="18" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="18" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>23</v>
       </c>
@@ -1793,12 +1832,12 @@
         <v>27</v>
       </c>
       <c r="J18" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18" s="72"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="78">
         <f>E5*700000</f>
         <v>18200000</v>
@@ -1832,7 +1871,7 @@
       <c r="K19" s="65"/>
       <c r="L19" s="65"/>
     </row>
-    <row r="20" spans="1:12" ht="12.75" customHeight="1">
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="88">
         <v>43843</v>
@@ -1867,23 +1906,42 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="100"/>
+      <c r="B21" s="10">
+        <v>43991</v>
+      </c>
+      <c r="C21" s="10">
+        <v>43996</v>
+      </c>
+      <c r="D21" s="10">
+        <v>44005</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1360128</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1514164</v>
+      </c>
+      <c r="G21" s="44">
+        <f>F21/A$19</f>
+        <v>8.3195824175824176E-2</v>
+      </c>
+      <c r="H21" s="86">
+        <f>H20-F21</f>
+        <v>15274834</v>
+      </c>
+      <c r="I21" s="87">
+        <f>I20-G21</f>
+        <v>0.83927659340659344</v>
+      </c>
+      <c r="J21" s="100">
+        <v>185</v>
+      </c>
       <c r="K21" s="65"/>
       <c r="L21" s="65"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1897,7 +1955,7 @@
       <c r="K22" s="73"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1911,7 +1969,7 @@
       <c r="K23" s="74"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1925,7 +1983,7 @@
       <c r="K24" s="73"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1939,7 +1997,7 @@
       <c r="K25" s="73"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1953,7 +2011,7 @@
       <c r="K26" s="73"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1967,7 +2025,7 @@
       <c r="K27" s="73"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1981,7 +2039,7 @@
       <c r="K28" s="73"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="13.8" thickBot="1">
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -1995,38 +2053,38 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="117">
+      <c r="E30" s="105">
         <f>SUM(E19:E29)</f>
-        <v>1140480</v>
-      </c>
-      <c r="F30" s="118">
+        <v>2500608</v>
+      </c>
+      <c r="F30" s="106">
         <f>SUM(F19:F29)</f>
-        <v>1411002</v>
+        <v>2925166</v>
       </c>
       <c r="G30" s="27">
         <f>SUM(G19:G29)</f>
-        <v>7.7527582417582425E-2</v>
+        <v>0.16072340659340661</v>
       </c>
       <c r="H30" s="24">
         <f>A19-F30</f>
-        <v>16788998</v>
+        <v>15274834</v>
       </c>
       <c r="I30" s="36">
         <f>1-G30</f>
-        <v>0.9224724175824176</v>
+        <v>0.83927659340659333</v>
       </c>
       <c r="J30" s="104"/>
       <c r="K30" s="75"/>
       <c r="L30" s="75"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2038,13 +2096,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A34" s="112" t="s">
+    <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2052,11 +2110,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="109" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="109"/>
+      <c r="B35" s="118"/>
       <c r="C35" s="12" t="s">
         <v>18</v>
       </c>
@@ -2070,32 +2128,32 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="107">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="116">
         <f>A19-F30</f>
-        <v>16788998</v>
-      </c>
-      <c r="B36" s="108"/>
+        <v>15274834</v>
+      </c>
+      <c r="B36" s="117"/>
       <c r="C36" s="79">
         <f>1-G30</f>
-        <v>0.9224724175824176</v>
+        <v>0.83927659340659333</v>
       </c>
       <c r="D36" s="25">
         <f>(C36/0.8)*100</f>
-        <v>115.30905219780219</v>
+        <v>104.90957417582416</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="116" t="s">
+      <c r="G36" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2103,7 +2161,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2118,7 +2176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6">
+    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2130,7 +2188,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -2139,10 +2197,10 @@
       <c r="F40" s="61"/>
       <c r="G40" s="61"/>
       <c r="H40" s="61"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="106"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="I40" s="114"/>
+      <c r="J40" s="115"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="62"/>
       <c r="B41" s="63"/>
       <c r="C41" s="63"/>
@@ -2152,7 +2210,7 @@
       <c r="G41" s="64"/>
       <c r="H41" s="63"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="62"/>
       <c r="B42" s="63"/>
       <c r="C42" s="63"/>
@@ -2162,7 +2220,7 @@
       <c r="G42" s="64"/>
       <c r="H42" s="63"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="62"/>
       <c r="B43" s="63"/>
       <c r="C43" s="63"/>
@@ -2172,7 +2230,7 @@
       <c r="G43" s="64"/>
       <c r="H43" s="63"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="62"/>
       <c r="B44" s="63"/>
       <c r="C44" s="63"/>
@@ -2182,7 +2240,7 @@
       <c r="G44" s="64"/>
       <c r="H44" s="63"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
       <c r="B45" s="63"/>
       <c r="C45" s="63"/>
@@ -2192,7 +2250,7 @@
       <c r="G45" s="64"/>
       <c r="H45" s="63"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="62"/>
       <c r="B46" s="63"/>
       <c r="C46" s="65"/>
@@ -2202,7 +2260,7 @@
       <c r="G46" s="65"/>
       <c r="H46" s="65"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="62"/>
       <c r="B47" s="63"/>
       <c r="C47" s="63"/>
@@ -2212,7 +2270,7 @@
       <c r="G47" s="64"/>
       <c r="H47" s="63"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="62"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
@@ -2222,7 +2280,7 @@
       <c r="G48" s="64"/>
       <c r="H48" s="63"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="62"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
@@ -2232,11 +2290,11 @@
       <c r="G49" s="64"/>
       <c r="H49" s="63"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="111"/>
       <c r="E50" s="67"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2244,7 +2302,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="61"/>
       <c r="B51" s="61"/>
       <c r="C51" s="61"/>
@@ -2253,10 +2311,10 @@
       <c r="F51" s="61"/>
       <c r="G51" s="61"/>
       <c r="H51" s="61"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="106"/>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="I51" s="114"/>
+      <c r="J51" s="115"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="62"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2265,10 +2323,10 @@
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
       <c r="H52" s="63"/>
-      <c r="I52" s="110"/>
-      <c r="J52" s="110"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="62"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2277,10 +2335,10 @@
       <c r="F53" s="65"/>
       <c r="G53" s="65"/>
       <c r="H53" s="65"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2290,25 +2348,19 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="105"/>
-      <c r="C59" s="106"/>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="105"/>
-      <c r="C66" s="106"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="114"/>
+      <c r="C59" s="115"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="114"/>
+      <c r="C66" s="115"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2316,6 +2368,12 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2329,12 +2387,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2343,24 +2401,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 0,3 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51CBA29-E7E3-4266-B3BD-DF46CF07816F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FE6DC-7FDA-4A6C-AA43-5066E94EC76E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>Охладитель плунжера</t>
   </si>
   <si>
-    <t>Начальник УРФ                                            Е.А. Козинов</t>
-  </si>
-  <si>
     <t>Формокомплект банки 0,3 л тип III-4-66-1-300-1 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>Вес, гр. (ном. 180 гр.)</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -763,18 +763,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -784,28 +778,11 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -981,9 +958,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,32 +967,84 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1363,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1384,34 +1410,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1422,85 +1448,85 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="M3" s="14"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
+      <c r="A5" s="39">
         <v>1</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="52">
+      <c r="C5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="41">
         <v>26</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="41">
         <v>26</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="52">
+      <c r="F5" s="69"/>
+      <c r="G5" s="41">
         <f>E5-F5</f>
         <v>26</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="76"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="42">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>42</v>
+      <c r="C6" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="9">
         <v>26</v>
@@ -1508,27 +1534,27 @@
       <c r="E6" s="9">
         <v>26</v>
       </c>
-      <c r="F6" s="81"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>26</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="77"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
+      <c r="A7" s="42">
         <f t="shared" ref="A7:A15" si="1">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>42</v>
+      <c r="C7" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="9">
         <v>32</v>
@@ -1536,27 +1562,27 @@
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="81"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="77"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
+      <c r="A8" s="42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>42</v>
+      <c r="C8" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="9">
         <v>32</v>
@@ -1564,27 +1590,27 @@
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="81"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="77"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="42">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="96" t="s">
-        <v>42</v>
+      <c r="C9" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="9">
         <v>100</v>
@@ -1592,27 +1618,27 @@
       <c r="E9" s="9">
         <v>100</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G15" si="2">E9-F9</f>
         <v>100</v>
       </c>
-      <c r="H9" s="60"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="77"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="A10" s="42">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>42</v>
+      <c r="C10" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="9">
         <v>22</v>
@@ -1620,27 +1646,27 @@
       <c r="E10" s="9">
         <v>22</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="70"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="56"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="77"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="53">
+      <c r="A11" s="42">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="96" t="s">
-        <v>42</v>
+      <c r="C11" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="9">
         <v>25</v>
@@ -1648,28 +1674,28 @@
       <c r="E11" s="9">
         <v>25</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="57"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="35"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53">
+      <c r="A12" s="42">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="96" t="s">
-        <v>42</v>
+      <c r="C12" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="13">
         <v>8</v>
@@ -1677,28 +1703,28 @@
       <c r="E12" s="13">
         <v>8</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="57"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="35"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53">
+      <c r="A13" s="42">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="96" t="s">
-        <v>42</v>
+      <c r="C13" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="9">
         <v>80</v>
@@ -1706,29 +1732,29 @@
       <c r="E13" s="9">
         <v>50</v>
       </c>
-      <c r="F13" s="81"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="57"/>
+      <c r="I13" s="46"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="77"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
+      <c r="A14" s="42">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>42</v>
+      <c r="C14" s="85" t="s">
+        <v>41</v>
       </c>
       <c r="D14" s="9">
         <v>220</v>
@@ -1736,48 +1762,50 @@
       <c r="E14" s="9">
         <v>220</v>
       </c>
-      <c r="F14" s="81"/>
+      <c r="F14" s="70">
+        <v>24</v>
+      </c>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="57"/>
+        <v>196</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="77"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="80">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="54">
+      <c r="C15" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="43">
         <v>40</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="43">
         <v>40</v>
       </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="54">
+      <c r="F15" s="72"/>
+      <c r="G15" s="43">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="94"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="68"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1789,7 +1817,7 @@
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="14"/>
@@ -1799,115 +1827,115 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
+      <c r="J18" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="78">
+      <c r="A19" s="67">
         <f>E5*700000</f>
         <v>18200000</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="32">
         <v>43644</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="73">
         <v>43646</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="85">
+      <c r="D19" s="32"/>
+      <c r="E19" s="74">
         <v>515328</v>
       </c>
-      <c r="F19" s="85">
+      <c r="F19" s="74">
         <v>670208</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="33">
         <f>F19/A$19</f>
         <v>3.6824615384615386E-2</v>
       </c>
-      <c r="H19" s="86">
+      <c r="H19" s="75">
         <f>A19-F19</f>
         <v>17529792</v>
       </c>
-      <c r="I19" s="87">
+      <c r="I19" s="76">
         <f>1-G19</f>
         <v>0.96317538461538466</v>
       </c>
-      <c r="J19" s="99"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="88">
+      <c r="A20" s="42"/>
+      <c r="B20" s="77">
         <v>43843</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="77">
         <v>43845</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="77">
         <v>43857</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="78">
         <v>625152</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="78">
         <v>740794</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="33">
         <f>F20/A$19</f>
         <v>4.0702967032967032E-2</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="75">
         <f>H19-F20</f>
         <v>16788998</v>
       </c>
-      <c r="I20" s="87">
+      <c r="I20" s="76">
         <f>I19-G20</f>
         <v>0.9224724175824176</v>
       </c>
-      <c r="J20" s="99">
+      <c r="J20" s="88">
         <v>186</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="10">
         <v>43991</v>
       </c>
@@ -1923,168 +1951,210 @@
       <c r="F21" s="11">
         <v>1514164</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="33">
         <f>F21/A$19</f>
         <v>8.3195824175824176E-2</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="75">
         <f>H20-F21</f>
         <v>15274834</v>
       </c>
-      <c r="I21" s="87">
+      <c r="I21" s="76">
         <f>I20-G21</f>
         <v>0.83927659340659344</v>
       </c>
-      <c r="J21" s="100">
+      <c r="J21" s="89">
         <v>185</v>
       </c>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="73"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="93">
+        <v>44116</v>
+      </c>
+      <c r="C22" s="93">
+        <v>44118</v>
+      </c>
+      <c r="D22" s="93">
+        <v>44137</v>
+      </c>
+      <c r="E22" s="107">
+        <v>688512</v>
+      </c>
+      <c r="F22" s="107">
+        <v>765101</v>
+      </c>
+      <c r="G22" s="33">
+        <f t="shared" ref="G22:G23" si="3">F22/A$19</f>
+        <v>4.2038516483516482E-2</v>
+      </c>
+      <c r="H22" s="75">
+        <f t="shared" ref="H22" si="4">H21-F22</f>
+        <v>14509733</v>
+      </c>
+      <c r="I22" s="76">
+        <f t="shared" ref="I22" si="5">I21-G22</f>
+        <v>0.79723807692307691</v>
+      </c>
+      <c r="J22" s="95">
+        <v>184</v>
+      </c>
+      <c r="K22" s="62"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="74"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="93">
+        <v>44288</v>
+      </c>
+      <c r="C23" s="93">
+        <v>44291</v>
+      </c>
+      <c r="D23" s="93">
+        <v>44319</v>
+      </c>
+      <c r="E23" s="108">
+        <v>920832</v>
+      </c>
+      <c r="F23" s="108">
+        <v>1018523</v>
+      </c>
+      <c r="G23" s="33">
+        <f t="shared" si="3"/>
+        <v>5.5962802197802197E-2</v>
+      </c>
+      <c r="H23" s="75">
+        <f t="shared" ref="H23" si="6">H22-F23</f>
+        <v>13491210</v>
+      </c>
+      <c r="I23" s="76">
+        <f t="shared" ref="I23" si="7">I22-G23</f>
+        <v>0.74127527472527466</v>
+      </c>
+      <c r="J23" s="89">
+        <v>185</v>
+      </c>
+      <c r="K23" s="63"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="73"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="62"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="73"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="73"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="62"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="73"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="73"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="103"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="105">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="91">
         <f>SUM(E19:E29)</f>
-        <v>2500608</v>
-      </c>
-      <c r="F30" s="106">
+        <v>4109952</v>
+      </c>
+      <c r="F30" s="92">
         <f>SUM(F19:F29)</f>
-        <v>2925166</v>
-      </c>
-      <c r="G30" s="27">
+        <v>4708790</v>
+      </c>
+      <c r="G30" s="22">
         <f>SUM(G19:G29)</f>
-        <v>0.16072340659340661</v>
-      </c>
-      <c r="H30" s="24">
+        <v>0.25872472527472529</v>
+      </c>
+      <c r="H30" s="20">
         <f>A19-F30</f>
-        <v>15274834</v>
-      </c>
-      <c r="I30" s="36">
+        <v>13491210</v>
+      </c>
+      <c r="I30" s="25">
         <f>1-G30</f>
-        <v>0.83927659340659333</v>
-      </c>
-      <c r="J30" s="104"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.74127527472527466</v>
+      </c>
+      <c r="J30" s="90"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2096,13 +2166,13 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2110,11 +2180,11 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="118" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="118"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="12" t="s">
         <v>18</v>
       </c>
@@ -2128,32 +2198,30 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="116">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="114">
         <f>A19-F30</f>
-        <v>15274834</v>
-      </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="79">
+        <v>13491210</v>
+      </c>
+      <c r="B36" s="115"/>
+      <c r="C36" s="68">
         <f>1-G30</f>
-        <v>0.83927659340659333</v>
-      </c>
-      <c r="D36" s="25">
+        <v>0.74127527472527466</v>
+      </c>
+      <c r="D36" s="21">
         <f>(C36/0.8)*100</f>
-        <v>104.90957417582416</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="113" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92.659409340659323</v>
+      </c>
+      <c r="E36" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2161,7 +2229,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2176,7 +2244,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2188,114 +2256,114 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="115"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="113"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="63"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="63"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="52"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="63"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="63"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="52"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="52"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="63"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="63"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="63"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="52"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="52"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="52"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="63"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="110"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="67"/>
+      <c r="B50" s="120"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -2303,40 +2371,40 @@
       <c r="J50" s="1"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="115"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="113"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="117"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -2349,18 +2417,23 @@
       <c r="H54" s="1"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
+      <c r="B59" s="112"/>
+      <c r="C59" s="113"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="114"/>
-      <c r="C66" s="115"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="113"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B66:C66"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A35:B35"/>
@@ -2368,12 +2441,6 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G36:L36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
